--- a/doc/测试文档/订单退款测试.xlsx
+++ b/doc/测试文档/订单退款测试.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>用例描述</t>
   </si>
@@ -62,123 +62,22 @@
     <t>测试时间</t>
   </si>
   <si>
-    <t>准</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>报名表（定制带新注册）测试操作</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>legend</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>通过</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.hot-basketball.com/index/apps/buycouponForm/event_id/41</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员及非会员操作动漫节购买卡券功能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>产生一条会员记录（member）
-产生一条订单记录（bill）
-产生一条活动会员记录（event_member）
-根据购买数量产生N条卡券记录
-（item_coupon_member）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>产生一条订单记录（bill）
-产生一条活动会员记录（event_member）
-根据购买数量产生N条卡券记录
-（item_coupon_member）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡券状态“立即使用”变为“已使用”</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡券
-领取</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡券
-未使用
-未失效
-未被领取</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开我的卡券列表或详情页
-点击“转赠”
-去到卡券分享页面点右上角转发</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>没动作、再未被领取前卡券还可以使用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开卡券分享页面，点击领取卡券
-如非会员提示先注册后领取</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>原卡券“未使用”状态变为“已赠送”
-并记录领取的对象
-领取的对象将新增一条新卡券记录</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练营管理-&gt;卡券管理-&gt;凭号使用
-输入手机号码和卡券后6位数获取卡券
-点击“立即使用”</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机端</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程退款2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>购买15节,送3节,以上6节</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>课程退款1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>购买15节,送3节,以上2节</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>课程退款3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>购买15节,已上2节</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>活动退款1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动退款2</t>
-  </si>
-  <si>
     <t>4000活动退款4000</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -187,15 +86,165 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>购买15节课,送3节课,录6节课,审6节课,结算6节课(也可以lesson_member改剩余课时-6)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买15节课,录2节课,审2节课,结算2节课(也可以lesson_member改剩余课时-2)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买15节课,送3节课,录2节课,审2节课,结算2节课(也可以lesson_member改剩余课时-2)</t>
+    <t>订单退款测试操作</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员退款操作,训练营管理员手机端和management操作同意或者拒绝,系统财务admin操作打款</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.hot-basketball.com/frontend/index
+https://m.hot-basketball.com/admin/index
+https://m.hot-basketball.com/frontend/bill/billInfo/bill_id/实际id
+https://m.hot-basketball.com/frontend/bill/billInfoofcamp/bill_id/实际id
+https://m.hot-basketball.com/management/index</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试账号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程退款1(营业额版)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程退款2(营业额版)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程退款1(课时版)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程退款3(营业额版)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程退款2(课时版)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程退款3(课时版)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生一条退款记录（refund）;
+改变订单bill记录（refundamount,rufund_fee,refund,status）;
+产生admin操作记录（log_admindo）;
+产生一条训练营收入数据(income);
+产生一条训练营流水(camp_finance);
+改变训练营余额camp(balance);
+改变lesson_member数据(rest_schedule,status)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生一条退款记录（refund）;
+改变订单bill记录（refundamount,rufund_fee,refund,status）;
+产生admin操作记录（log_admindo）;
+产生一条训练营支出数据(output);
+产生一条训练营流水(camp_finance),
+改变训练营余额camp(balance);
+改变lesson_member数据(rest_schedule,status)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买15节,送3节,已上6节</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买15节,送3节,已上2节</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买15节课,送3节课,录2节课,审2节课,结算2节课(也可以lesson_member改剩余课时-15);退15节,同意,admin打款</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买15节课,录2节课,审2节课,结算2节课(也可以lesson_member改剩余课时-2);退2节,同意,admin打款</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买15节课,送3节课,录6节课,审6节课,结算6节课(也可以lesson_member改剩余课时-2),退2节,同意,admin打款</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程退款4(营业额版)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买15节,已上2节,送3节</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买15节课,录2节课,审2节课,结算2节课(也可以lesson_member改剩余课时-2);退15节,被告知只能退13节,退13节,同意,admin打款</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程退款4(课时版)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买15节,已上2节,送三节</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生一条退款记录（refund）;
+改变订单bill记录（refundamount,rufund_fee,refund,status）;
+产生admin操作记录（log_admindo）;
+改变lesson_member数据(rest_schedule,status)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买15节课,录2节课,审2节课,结算2节课(也可以lesson_member改剩余课时-2);退6节,同意,admin打款</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买活动,申请退款,同意,admin打款</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动退款1(营业额版)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动退款2(营业额版)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生一条退款记录（refund）;
+改变订单bill记录（refundamount,rufund_fee,refund,status）;
+产生admin操作记录（log_admindo）;
+产生一条训练营支出数据(output);
+产生一条训练营流水(camp_finance),
+改变训练营余额camp(balance);
+改变event_member数据(status=&gt;4)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动退款1(课时版)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动退款2(课时版)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生一条退款记录（refund）;
+改变订单bill记录（refundamount,rufund_fee,refund,status）;
+产生admin操作记录（log_admindo）;
+改变event_member数据(status=&gt;4)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生一条退款记录（refund）;
+改变订单bill记录（refundamount,rufund_fee,refund,status）;
+产生admin操作记录（log_admindo）;
+产生一条训练营收入数据(income);
+产生一条训练营流水(camp_finance),
+改变训练营余额camp(balance);
+改变event_member数据(status=&gt;4)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,23 +306,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="72"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -289,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -554,10 +586,23 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -567,8 +612,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -578,7 +627,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -591,11 +642,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -606,15 +654,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -675,12 +714,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -699,22 +732,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1020,398 +1067,511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="1" customWidth="1"/>
     <col min="4" max="4" width="45" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="73.625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="25.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A4" s="13" t="s">
+    <row r="1" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="19" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="K4" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="33" t="s">
-        <v>19</v>
+      <c r="B7" s="11"/>
+      <c r="C7" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="28"/>
+      <c r="J7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="K7" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" spans="1:10" ht="109.5" customHeight="1" thickBot="1">
-      <c r="A10" s="34" t="s">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:11" ht="63" customHeight="1" thickBot="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A10" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="129.75" customHeight="1">
+      <c r="A11" s="31">
+        <v>1</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="115.5" customHeight="1">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="117.75" customHeight="1">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="117.75" customHeight="1">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="120.75" customHeight="1">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="117" customHeight="1">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="102" customHeight="1">
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="102" customHeight="1">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="101.25" customHeight="1">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="121.5" customHeight="1">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="101.25" customHeight="1">
+      <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="105.75" customHeight="1">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="7">
-        <v>43284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A13" s="5">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="7">
-        <v>43284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A14" s="5">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="7">
-        <v>43284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A15" s="5">
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="121.5" customHeight="1">
+      <c r="A22" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="7">
-        <v>43284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A16" s="5">
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="119.25" customHeight="1">
+      <c r="A23" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="7">
-        <v>43284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="81" customHeight="1">
-      <c r="A17" s="5">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="7">
-        <v>43284</v>
-      </c>
+      <c r="B23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A1:J3"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:K3"/>
     <mergeCell ref="A4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I7:I9"/>
     <mergeCell ref="J4:J6"/>
     <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K7:K9"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="C4:H6"/>
-    <mergeCell ref="C7:H9"/>
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="C7:I9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
